--- a/Assets/_Game/Resources/Story/story_one.xlsx
+++ b/Assets/_Game/Resources/Story/story_one.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Learning\Coding\GameCoding\GameProject\Virtual-Novel-Project\Assets\_Game\Resources\Story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Learning\Coding\GameCoding\GameProject\MyVirtualNovel\Virtual-Novel-Project\Assets\_Game\Resources\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F314FDBA-0FBD-47D8-A93B-52A7FC27EE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4FE086-6176-4A89-8716-D38070A07167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="5250" windowWidth="20250" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>Annie</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +169,50 @@
   </si>
   <si>
     <t>story_one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastBGImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要一起出去玩吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我正好这两天有空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有想要去的地方吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唔，我想想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东京怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L3" sqref="L3:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,7 +562,7 @@
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -544,8 +599,20 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -584,6 +651,9 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
@@ -593,8 +663,24 @@
       <c r="L3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" t="str">
+        <f>IF(E2&lt;&gt;"",E2,M2)</f>
+        <v>BGImage_1</v>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(F2&lt;&gt;"",F2,N2)</f>
+        <v>bgm_1</v>
+      </c>
+      <c r="O3">
+        <f>IF(H2&lt;&gt;"",H2,O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(K2&lt;&gt;"",K2,P2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -610,8 +696,30 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M16" si="0">IF(E3&lt;&gt;"",E3,M3)</f>
+        <v>BGImage_1</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N16" si="1">IF(F3&lt;&gt;"",F3,N3)</f>
+        <v>bgm_1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O16" si="2">IF(H3&lt;&gt;"",H3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P16" si="3">IF(K3&lt;&gt;"",K3,P3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -624,8 +732,30 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -635,8 +765,30 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -646,8 +798,30 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -663,14 +837,30 @@
       <c r="H8">
         <v>540</v>
       </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8">
-        <v>-540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -680,27 +870,283 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>-540</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>26</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>BGImage_2</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>bgm_2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E17" t="s">
         <v>32</v>
       </c>
     </row>
